--- a/資料/設計/状態遷移/状態遷移マトリクスv0.5.xlsx
+++ b/資料/設計/状態遷移/状態遷移マトリクスv0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\設計\状態遷移\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1148F33-6CC3-4CC9-AB47-6CC8BAAE5EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614AAF90-59AA-4EF0-B4A6-98EB18ABC82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBE259C0-78D9-4A06-B124-2263198FE8BE}"/>
   </bookViews>
@@ -1176,10 +1176,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1191,145 +1323,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1649,7 +1649,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1672,96 +1672,96 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="32"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="79"/>
+      <c r="E3" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="33"/>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="50" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="78"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="79" t="s">
+      <c r="C5" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="56" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1769,13 +1769,13 @@
       <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="48" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="51" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1790,10 +1790,10 @@
       <c r="I6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="79" t="s">
+      <c r="J6" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="56" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1801,31 +1801,31 @@
       <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="52" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="64" t="s">
-        <v>24</v>
+      <c r="H7" s="46" t="s">
+        <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="79" t="s">
+      <c r="J7" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="56" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1833,13 +1833,13 @@
       <c r="B8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="53" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1854,10 +1854,10 @@
       <c r="I8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="57" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1868,22 +1868,22 @@
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:11" ht="38.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="30"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -1894,19 +1894,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="30" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="33" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="38" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1917,13 +1917,13 @@
       <c r="C14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="37" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="35" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1951,10 +1951,10 @@
       <c r="C16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="6" t="s">
